--- a/Otimização/triagem.xlsx
+++ b/Otimização/triagem.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J3"/>
+  <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -493,25 +493,25 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>513.4663641264968</v>
+        <v>565.1923707142779</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>45413.86063322327</v>
+        <v>45413.90750580061</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>45413.86077197333</v>
+        <v>45413.907636235</v>
       </c>
       <c r="F2" s="3" t="n">
-        <v>0.0001387500694444445</v>
+        <v>0.0001304343865740741</v>
       </c>
       <c r="G2" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H2" t="n">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="I2" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
@@ -527,27 +527,299 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>797.9987147326889</v>
+        <v>703.9281400860115</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>45413.86077254323</v>
+        <v>45413.90764671707</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>45413.86077735396</v>
+        <v>45413.90765120689</v>
       </c>
       <c r="F3" s="3" t="n">
-        <v>4.810729166666666e-06</v>
+        <v>4.489814814814815e-06</v>
       </c>
       <c r="G3" t="n">
+        <v>14</v>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
+      </c>
+      <c r="I3" t="n">
+        <v>4</v>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>COMPLETE</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" t="n">
+        <v>744.2480782766445</v>
+      </c>
+      <c r="D4" s="2" t="n">
+        <v>45413.90765201986</v>
+      </c>
+      <c r="E4" s="2" t="n">
+        <v>45413.90765606792</v>
+      </c>
+      <c r="F4" s="3" t="n">
+        <v>4.048055555555555e-06</v>
+      </c>
+      <c r="G4" t="n">
+        <v>22</v>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+      <c r="I4" t="n">
+        <v>13</v>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>COMPLETE</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>3</v>
+      </c>
+      <c r="C5" t="n">
+        <v>633.050001047896</v>
+      </c>
+      <c r="D5" s="2" t="n">
+        <v>45413.9076567984</v>
+      </c>
+      <c r="E5" s="2" t="n">
+        <v>45413.90766115845</v>
+      </c>
+      <c r="F5" s="3" t="n">
+        <v>4.360046296296296e-06</v>
+      </c>
+      <c r="G5" t="n">
         <v>23</v>
       </c>
-      <c r="H3" t="n">
+      <c r="H5" t="n">
+        <v>21</v>
+      </c>
+      <c r="I5" t="n">
+        <v>13</v>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>COMPLETE</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>4</v>
+      </c>
+      <c r="C6" t="n">
+        <v>567.1161762126092</v>
+      </c>
+      <c r="D6" s="2" t="n">
+        <v>45413.90766198299</v>
+      </c>
+      <c r="E6" s="2" t="n">
+        <v>45413.9076662549</v>
+      </c>
+      <c r="F6" s="3" t="n">
+        <v>4.271909722222223e-06</v>
+      </c>
+      <c r="G6" t="n">
+        <v>25</v>
+      </c>
+      <c r="H6" t="n">
+        <v>27</v>
+      </c>
+      <c r="I6" t="n">
+        <v>15</v>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>COMPLETE</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>5</v>
+      </c>
+      <c r="C7" t="n">
+        <v>706.0405603478761</v>
+      </c>
+      <c r="D7" s="2" t="n">
+        <v>45413.90766709617</v>
+      </c>
+      <c r="E7" s="2" t="n">
+        <v>45413.90767021354</v>
+      </c>
+      <c r="F7" s="3" t="n">
+        <v>3.117372685185185e-06</v>
+      </c>
+      <c r="G7" t="n">
+        <v>19</v>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+      <c r="I7" t="n">
+        <v>30</v>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>COMPLETE</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="I3" t="n">
+      <c r="B8" t="n">
+        <v>6</v>
+      </c>
+      <c r="C8" t="n">
+        <v>631.2513793815023</v>
+      </c>
+      <c r="D8" s="2" t="n">
+        <v>45413.90767076387</v>
+      </c>
+      <c r="E8" s="2" t="n">
+        <v>45413.90767342736</v>
+      </c>
+      <c r="F8" s="3" t="n">
+        <v>2.663483796296296e-06</v>
+      </c>
+      <c r="G8" t="n">
+        <v>26</v>
+      </c>
+      <c r="H8" t="n">
+        <v>25</v>
+      </c>
+      <c r="I8" t="n">
+        <v>21</v>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>COMPLETE</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="J3" t="inlineStr">
+      <c r="B9" t="n">
+        <v>7</v>
+      </c>
+      <c r="C9" t="n">
+        <v>643.3065150904984</v>
+      </c>
+      <c r="D9" s="2" t="n">
+        <v>45413.90767412398</v>
+      </c>
+      <c r="E9" s="2" t="n">
+        <v>45413.90767807258</v>
+      </c>
+      <c r="F9" s="3" t="n">
+        <v>3.948599537037037e-06</v>
+      </c>
+      <c r="G9" t="n">
+        <v>10</v>
+      </c>
+      <c r="H9" t="n">
+        <v>11</v>
+      </c>
+      <c r="I9" t="n">
+        <v>21</v>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>COMPLETE</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>8</v>
+      </c>
+      <c r="C10" t="n">
+        <v>600.0418887143586</v>
+      </c>
+      <c r="D10" s="2" t="n">
+        <v>45413.90767898317</v>
+      </c>
+      <c r="E10" s="2" t="n">
+        <v>45413.90768313344</v>
+      </c>
+      <c r="F10" s="3" t="n">
+        <v>4.150266203703703e-06</v>
+      </c>
+      <c r="G10" t="n">
+        <v>8</v>
+      </c>
+      <c r="H10" t="n">
+        <v>12</v>
+      </c>
+      <c r="I10" t="n">
+        <v>17</v>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>COMPLETE</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>9</v>
+      </c>
+      <c r="C11" t="n">
+        <v>744.8583513583845</v>
+      </c>
+      <c r="D11" s="2" t="n">
+        <v>45413.90769887075</v>
+      </c>
+      <c r="E11" s="2" t="n">
+        <v>45413.90770314227</v>
+      </c>
+      <c r="F11" s="3" t="n">
+        <v>4.271516203703704e-06</v>
+      </c>
+      <c r="G11" t="n">
+        <v>15</v>
+      </c>
+      <c r="H11" t="n">
+        <v>23</v>
+      </c>
+      <c r="I11" t="n">
+        <v>19</v>
+      </c>
+      <c r="J11" t="inlineStr">
         <is>
           <t>COMPLETE</t>
         </is>

--- a/Otimização/triagem.xlsx
+++ b/Otimização/triagem.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:R11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -466,20 +466,60 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>params_c1_neuronios</t>
+          <t>params_bias0</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>params_c2_neuronios</t>
+          <t>params_bias1</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>params_c3_neuronios</t>
+          <t>params_bias2</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>params_bias3</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>params_bias4</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>params_c0</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>params_c1</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>params_c2</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>params_c3</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>params_c4</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>params_n_layers</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>state</t>
         </is>
@@ -493,27 +533,43 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>565.1923707142779</v>
+        <v>559.1529134258944</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>45413.90750580061</v>
+        <v>45414.01577001205</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>45413.907636235</v>
+        <v>45414.01591023224</v>
       </c>
       <c r="F2" s="3" t="n">
-        <v>0.0001304343865740741</v>
-      </c>
-      <c r="G2" t="n">
-        <v>25</v>
-      </c>
-      <c r="H2" t="n">
-        <v>28</v>
-      </c>
-      <c r="I2" t="n">
-        <v>26</v>
-      </c>
-      <c r="J2" t="inlineStr">
+        <v>0.0001402201851851852</v>
+      </c>
+      <c r="G2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H2" t="b">
+        <v>1</v>
+      </c>
+      <c r="I2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="n">
+        <v>4</v>
+      </c>
+      <c r="M2" t="n">
+        <v>3</v>
+      </c>
+      <c r="N2" t="n">
+        <v>2</v>
+      </c>
+      <c r="O2" t="inlineStr"/>
+      <c r="P2" t="inlineStr"/>
+      <c r="Q2" t="n">
+        <v>3</v>
+      </c>
+      <c r="R2" t="inlineStr">
         <is>
           <t>COMPLETE</t>
         </is>
@@ -527,27 +583,47 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>703.9281400860115</v>
+        <v>543.5374590331132</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>45413.90764671707</v>
+        <v>45414.01592175291</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>45413.90765120689</v>
+        <v>45414.01592626435</v>
       </c>
       <c r="F3" s="3" t="n">
-        <v>4.489814814814815e-06</v>
-      </c>
-      <c r="G3" t="n">
-        <v>14</v>
-      </c>
-      <c r="H3" t="n">
-        <v>2</v>
-      </c>
-      <c r="I3" t="n">
-        <v>4</v>
-      </c>
-      <c r="J3" t="inlineStr">
+        <v>4.511435185185186e-06</v>
+      </c>
+      <c r="G3" t="b">
+        <v>0</v>
+      </c>
+      <c r="H3" t="b">
+        <v>0</v>
+      </c>
+      <c r="I3" t="b">
+        <v>0</v>
+      </c>
+      <c r="J3" t="b">
+        <v>0</v>
+      </c>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="n">
+        <v>5</v>
+      </c>
+      <c r="M3" t="n">
+        <v>3</v>
+      </c>
+      <c r="N3" t="n">
+        <v>4</v>
+      </c>
+      <c r="O3" t="n">
+        <v>2</v>
+      </c>
+      <c r="P3" t="inlineStr"/>
+      <c r="Q3" t="n">
+        <v>4</v>
+      </c>
+      <c r="R3" t="inlineStr">
         <is>
           <t>COMPLETE</t>
         </is>
@@ -561,27 +637,39 @@
         <v>2</v>
       </c>
       <c r="C4" t="n">
-        <v>744.2480782766445</v>
+        <v>686.4316305896616</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>45413.90765201986</v>
+        <v>45414.01592708952</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>45413.90765606792</v>
+        <v>45414.01593137521</v>
       </c>
       <c r="F4" s="3" t="n">
-        <v>4.048055555555555e-06</v>
-      </c>
-      <c r="G4" t="n">
-        <v>22</v>
-      </c>
-      <c r="H4" t="n">
-        <v>10</v>
-      </c>
-      <c r="I4" t="n">
-        <v>13</v>
-      </c>
-      <c r="J4" t="inlineStr">
+        <v>4.28568287037037e-06</v>
+      </c>
+      <c r="G4" t="b">
+        <v>0</v>
+      </c>
+      <c r="H4" t="b">
+        <v>0</v>
+      </c>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="n">
+        <v>2</v>
+      </c>
+      <c r="M4" t="n">
+        <v>4</v>
+      </c>
+      <c r="N4" t="inlineStr"/>
+      <c r="O4" t="inlineStr"/>
+      <c r="P4" t="inlineStr"/>
+      <c r="Q4" t="n">
+        <v>2</v>
+      </c>
+      <c r="R4" t="inlineStr">
         <is>
           <t>COMPLETE</t>
         </is>
@@ -595,27 +683,51 @@
         <v>3</v>
       </c>
       <c r="C5" t="n">
-        <v>633.050001047896</v>
+        <v>714.4669663167468</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>45413.9076567984</v>
+        <v>45414.01593223006</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>45413.90766115845</v>
+        <v>45414.01593640944</v>
       </c>
       <c r="F5" s="3" t="n">
-        <v>4.360046296296296e-06</v>
-      </c>
-      <c r="G5" t="n">
-        <v>23</v>
-      </c>
-      <c r="H5" t="n">
-        <v>21</v>
-      </c>
-      <c r="I5" t="n">
-        <v>13</v>
-      </c>
-      <c r="J5" t="inlineStr">
+        <v>4.179375e-06</v>
+      </c>
+      <c r="G5" t="b">
+        <v>0</v>
+      </c>
+      <c r="H5" t="b">
+        <v>1</v>
+      </c>
+      <c r="I5" t="b">
+        <v>0</v>
+      </c>
+      <c r="J5" t="b">
+        <v>1</v>
+      </c>
+      <c r="K5" t="b">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>5</v>
+      </c>
+      <c r="M5" t="n">
+        <v>3</v>
+      </c>
+      <c r="N5" t="n">
+        <v>5</v>
+      </c>
+      <c r="O5" t="n">
+        <v>4</v>
+      </c>
+      <c r="P5" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>5</v>
+      </c>
+      <c r="R5" t="inlineStr">
         <is>
           <t>COMPLETE</t>
         </is>
@@ -629,27 +741,43 @@
         <v>4</v>
       </c>
       <c r="C6" t="n">
-        <v>567.1161762126092</v>
+        <v>1100.65539444096</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>45413.90766198299</v>
+        <v>45414.01593707076</v>
       </c>
       <c r="E6" s="2" t="n">
-        <v>45413.9076662549</v>
+        <v>45414.01594131238</v>
       </c>
       <c r="F6" s="3" t="n">
-        <v>4.271909722222223e-06</v>
-      </c>
-      <c r="G6" t="n">
-        <v>25</v>
-      </c>
-      <c r="H6" t="n">
-        <v>27</v>
-      </c>
-      <c r="I6" t="n">
-        <v>15</v>
-      </c>
-      <c r="J6" t="inlineStr">
+        <v>4.241631944444444e-06</v>
+      </c>
+      <c r="G6" t="b">
+        <v>0</v>
+      </c>
+      <c r="H6" t="b">
+        <v>1</v>
+      </c>
+      <c r="I6" t="b">
+        <v>1</v>
+      </c>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="n">
+        <v>3</v>
+      </c>
+      <c r="M6" t="n">
+        <v>3</v>
+      </c>
+      <c r="N6" t="n">
+        <v>4</v>
+      </c>
+      <c r="O6" t="inlineStr"/>
+      <c r="P6" t="inlineStr"/>
+      <c r="Q6" t="n">
+        <v>3</v>
+      </c>
+      <c r="R6" t="inlineStr">
         <is>
           <t>COMPLETE</t>
         </is>
@@ -663,27 +791,47 @@
         <v>5</v>
       </c>
       <c r="C7" t="n">
-        <v>706.0405603478761</v>
+        <v>492.7296672439907</v>
       </c>
       <c r="D7" s="2" t="n">
-        <v>45413.90766709617</v>
+        <v>45414.01594205802</v>
       </c>
       <c r="E7" s="2" t="n">
-        <v>45413.90767021354</v>
+        <v>45414.01594628888</v>
       </c>
       <c r="F7" s="3" t="n">
-        <v>3.117372685185185e-06</v>
-      </c>
-      <c r="G7" t="n">
-        <v>19</v>
-      </c>
-      <c r="H7" t="n">
-        <v>1</v>
-      </c>
-      <c r="I7" t="n">
-        <v>30</v>
-      </c>
-      <c r="J7" t="inlineStr">
+        <v>4.230856481481481e-06</v>
+      </c>
+      <c r="G7" t="b">
+        <v>0</v>
+      </c>
+      <c r="H7" t="b">
+        <v>0</v>
+      </c>
+      <c r="I7" t="b">
+        <v>0</v>
+      </c>
+      <c r="J7" t="b">
+        <v>0</v>
+      </c>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="n">
+        <v>3</v>
+      </c>
+      <c r="M7" t="n">
+        <v>5</v>
+      </c>
+      <c r="N7" t="n">
+        <v>5</v>
+      </c>
+      <c r="O7" t="n">
+        <v>3</v>
+      </c>
+      <c r="P7" t="inlineStr"/>
+      <c r="Q7" t="n">
+        <v>4</v>
+      </c>
+      <c r="R7" t="inlineStr">
         <is>
           <t>COMPLETE</t>
         </is>
@@ -697,27 +845,43 @@
         <v>6</v>
       </c>
       <c r="C8" t="n">
-        <v>631.2513793815023</v>
+        <v>563.7518264957856</v>
       </c>
       <c r="D8" s="2" t="n">
-        <v>45413.90767076387</v>
+        <v>45414.01594707635</v>
       </c>
       <c r="E8" s="2" t="n">
-        <v>45413.90767342736</v>
+        <v>45414.01595166857</v>
       </c>
       <c r="F8" s="3" t="n">
-        <v>2.663483796296296e-06</v>
-      </c>
-      <c r="G8" t="n">
-        <v>26</v>
-      </c>
-      <c r="H8" t="n">
-        <v>25</v>
-      </c>
-      <c r="I8" t="n">
-        <v>21</v>
-      </c>
-      <c r="J8" t="inlineStr">
+        <v>4.592210648148148e-06</v>
+      </c>
+      <c r="G8" t="b">
+        <v>1</v>
+      </c>
+      <c r="H8" t="b">
+        <v>0</v>
+      </c>
+      <c r="I8" t="b">
+        <v>1</v>
+      </c>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="n">
+        <v>4</v>
+      </c>
+      <c r="M8" t="n">
+        <v>5</v>
+      </c>
+      <c r="N8" t="n">
+        <v>3</v>
+      </c>
+      <c r="O8" t="inlineStr"/>
+      <c r="P8" t="inlineStr"/>
+      <c r="Q8" t="n">
+        <v>3</v>
+      </c>
+      <c r="R8" t="inlineStr">
         <is>
           <t>COMPLETE</t>
         </is>
@@ -731,27 +895,51 @@
         <v>7</v>
       </c>
       <c r="C9" t="n">
-        <v>643.3065150904984</v>
+        <v>580.6045318604672</v>
       </c>
       <c r="D9" s="2" t="n">
-        <v>45413.90767412398</v>
+        <v>45414.01595242198</v>
       </c>
       <c r="E9" s="2" t="n">
-        <v>45413.90767807258</v>
+        <v>45414.01595687213</v>
       </c>
       <c r="F9" s="3" t="n">
-        <v>3.948599537037037e-06</v>
-      </c>
-      <c r="G9" t="n">
-        <v>10</v>
-      </c>
-      <c r="H9" t="n">
-        <v>11</v>
-      </c>
-      <c r="I9" t="n">
-        <v>21</v>
-      </c>
-      <c r="J9" t="inlineStr">
+        <v>4.450150462962962e-06</v>
+      </c>
+      <c r="G9" t="b">
+        <v>0</v>
+      </c>
+      <c r="H9" t="b">
+        <v>1</v>
+      </c>
+      <c r="I9" t="b">
+        <v>1</v>
+      </c>
+      <c r="J9" t="b">
+        <v>1</v>
+      </c>
+      <c r="K9" t="b">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>5</v>
+      </c>
+      <c r="M9" t="n">
+        <v>3</v>
+      </c>
+      <c r="N9" t="n">
+        <v>5</v>
+      </c>
+      <c r="O9" t="n">
+        <v>2</v>
+      </c>
+      <c r="P9" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>5</v>
+      </c>
+      <c r="R9" t="inlineStr">
         <is>
           <t>COMPLETE</t>
         </is>
@@ -765,27 +953,39 @@
         <v>8</v>
       </c>
       <c r="C10" t="n">
-        <v>600.0418887143586</v>
+        <v>488.2221028024351</v>
       </c>
       <c r="D10" s="2" t="n">
-        <v>45413.90767898317</v>
+        <v>45414.01595774364</v>
       </c>
       <c r="E10" s="2" t="n">
-        <v>45413.90768313344</v>
+        <v>45414.01596145376</v>
       </c>
       <c r="F10" s="3" t="n">
-        <v>4.150266203703703e-06</v>
-      </c>
-      <c r="G10" t="n">
-        <v>8</v>
-      </c>
-      <c r="H10" t="n">
-        <v>12</v>
-      </c>
-      <c r="I10" t="n">
-        <v>17</v>
-      </c>
-      <c r="J10" t="inlineStr">
+        <v>3.710115740740741e-06</v>
+      </c>
+      <c r="G10" t="b">
+        <v>0</v>
+      </c>
+      <c r="H10" t="b">
+        <v>0</v>
+      </c>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="n">
+        <v>2</v>
+      </c>
+      <c r="M10" t="n">
+        <v>3</v>
+      </c>
+      <c r="N10" t="inlineStr"/>
+      <c r="O10" t="inlineStr"/>
+      <c r="P10" t="inlineStr"/>
+      <c r="Q10" t="n">
+        <v>2</v>
+      </c>
+      <c r="R10" t="inlineStr">
         <is>
           <t>COMPLETE</t>
         </is>
@@ -799,27 +999,51 @@
         <v>9</v>
       </c>
       <c r="C11" t="n">
-        <v>744.8583513583845</v>
+        <v>900.4484519097377</v>
       </c>
       <c r="D11" s="2" t="n">
-        <v>45413.90769887075</v>
+        <v>45414.01596215672</v>
       </c>
       <c r="E11" s="2" t="n">
-        <v>45413.90770314227</v>
+        <v>45414.01596573395</v>
       </c>
       <c r="F11" s="3" t="n">
-        <v>4.271516203703704e-06</v>
-      </c>
-      <c r="G11" t="n">
-        <v>15</v>
-      </c>
-      <c r="H11" t="n">
-        <v>23</v>
-      </c>
-      <c r="I11" t="n">
-        <v>19</v>
-      </c>
-      <c r="J11" t="inlineStr">
+        <v>3.577222222222222e-06</v>
+      </c>
+      <c r="G11" t="b">
+        <v>1</v>
+      </c>
+      <c r="H11" t="b">
+        <v>0</v>
+      </c>
+      <c r="I11" t="b">
+        <v>1</v>
+      </c>
+      <c r="J11" t="b">
+        <v>0</v>
+      </c>
+      <c r="K11" t="b">
+        <v>1</v>
+      </c>
+      <c r="L11" t="n">
+        <v>2</v>
+      </c>
+      <c r="M11" t="n">
+        <v>2</v>
+      </c>
+      <c r="N11" t="n">
+        <v>4</v>
+      </c>
+      <c r="O11" t="n">
+        <v>4</v>
+      </c>
+      <c r="P11" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>5</v>
+      </c>
+      <c r="R11" t="inlineStr">
         <is>
           <t>COMPLETE</t>
         </is>

--- a/Otimização/triagem.xlsx
+++ b/Otimização/triagem.xlsx
@@ -533,41 +533,49 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>559.1529134258944</v>
+        <v>468.0924011849878</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>45414.01577001205</v>
+        <v>45414.02245579725</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>45414.01591023224</v>
+        <v>45414.02258049803</v>
       </c>
       <c r="F2" s="3" t="n">
-        <v>0.0001402201851851852</v>
+        <v>0.000124700787037037</v>
       </c>
       <c r="G2" t="b">
         <v>1</v>
       </c>
       <c r="H2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J2" t="b">
+        <v>0</v>
+      </c>
+      <c r="K2" t="b">
+        <v>0</v>
+      </c>
       <c r="L2" t="n">
+        <v>3</v>
+      </c>
+      <c r="M2" t="n">
+        <v>5</v>
+      </c>
+      <c r="N2" t="n">
+        <v>5</v>
+      </c>
+      <c r="O2" t="n">
+        <v>3</v>
+      </c>
+      <c r="P2" t="n">
         <v>4</v>
       </c>
-      <c r="M2" t="n">
-        <v>3</v>
-      </c>
-      <c r="N2" t="n">
-        <v>2</v>
-      </c>
-      <c r="O2" t="inlineStr"/>
-      <c r="P2" t="inlineStr"/>
       <c r="Q2" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="R2" t="inlineStr">
         <is>
@@ -583,45 +591,41 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>543.5374590331132</v>
+        <v>886.785257614136</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>45414.01592175291</v>
+        <v>45414.02258123893</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>45414.01592626435</v>
+        <v>45414.02258429865</v>
       </c>
       <c r="F3" s="3" t="n">
-        <v>4.511435185185186e-06</v>
+        <v>3.059733796296296e-06</v>
       </c>
       <c r="G3" t="b">
         <v>0</v>
       </c>
       <c r="H3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I3" t="b">
-        <v>0</v>
-      </c>
-      <c r="J3" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N3" t="n">
-        <v>4</v>
-      </c>
-      <c r="O3" t="n">
-        <v>2</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="O3" t="inlineStr"/>
       <c r="P3" t="inlineStr"/>
       <c r="Q3" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="R3" t="inlineStr">
         <is>
@@ -637,37 +641,41 @@
         <v>2</v>
       </c>
       <c r="C4" t="n">
-        <v>686.4316305896616</v>
+        <v>1158.607494602891</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>45414.01592708952</v>
+        <v>45414.02258505352</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>45414.01593137521</v>
+        <v>45414.02258980443</v>
       </c>
       <c r="F4" s="3" t="n">
-        <v>4.28568287037037e-06</v>
+        <v>4.750914351851851e-06</v>
       </c>
       <c r="G4" t="b">
         <v>0</v>
       </c>
       <c r="H4" t="b">
-        <v>0</v>
-      </c>
-      <c r="I4" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I4" t="b">
+        <v>1</v>
+      </c>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="M4" t="n">
-        <v>4</v>
-      </c>
-      <c r="N4" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="N4" t="n">
+        <v>3</v>
+      </c>
       <c r="O4" t="inlineStr"/>
       <c r="P4" t="inlineStr"/>
       <c r="Q4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R4" t="inlineStr">
         <is>
@@ -683,49 +691,37 @@
         <v>3</v>
       </c>
       <c r="C5" t="n">
-        <v>714.4669663167468</v>
+        <v>647.55550702048</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>45414.01593223006</v>
+        <v>45414.02259063558</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>45414.01593640944</v>
+        <v>45414.02259471928</v>
       </c>
       <c r="F5" s="3" t="n">
-        <v>4.179375e-06</v>
+        <v>4.083703703703703e-06</v>
       </c>
       <c r="G5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H5" t="b">
         <v>1</v>
       </c>
-      <c r="I5" t="b">
-        <v>0</v>
-      </c>
-      <c r="J5" t="b">
-        <v>1</v>
-      </c>
-      <c r="K5" t="b">
-        <v>0</v>
-      </c>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
       <c r="L5" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M5" t="n">
         <v>3</v>
       </c>
-      <c r="N5" t="n">
-        <v>5</v>
-      </c>
-      <c r="O5" t="n">
-        <v>4</v>
-      </c>
-      <c r="P5" t="n">
-        <v>4</v>
-      </c>
+      <c r="N5" t="inlineStr"/>
+      <c r="O5" t="inlineStr"/>
+      <c r="P5" t="inlineStr"/>
       <c r="Q5" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="R5" t="inlineStr">
         <is>
@@ -741,41 +737,49 @@
         <v>4</v>
       </c>
       <c r="C6" t="n">
-        <v>1100.65539444096</v>
+        <v>845.6953161629198</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>45414.01593707076</v>
+        <v>45414.02259538788</v>
       </c>
       <c r="E6" s="2" t="n">
-        <v>45414.01594131238</v>
+        <v>45414.02259973059</v>
       </c>
       <c r="F6" s="3" t="n">
-        <v>4.241631944444444e-06</v>
+        <v>4.342708333333333e-06</v>
       </c>
       <c r="G6" t="b">
         <v>0</v>
       </c>
       <c r="H6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I6" t="b">
-        <v>1</v>
-      </c>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J6" t="b">
+        <v>0</v>
+      </c>
+      <c r="K6" t="b">
+        <v>1</v>
+      </c>
       <c r="L6" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M6" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N6" t="n">
-        <v>4</v>
-      </c>
-      <c r="O6" t="inlineStr"/>
-      <c r="P6" t="inlineStr"/>
+        <v>3</v>
+      </c>
+      <c r="O6" t="n">
+        <v>5</v>
+      </c>
+      <c r="P6" t="n">
+        <v>5</v>
+      </c>
       <c r="Q6" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="R6" t="inlineStr">
         <is>
@@ -791,45 +795,41 @@
         <v>5</v>
       </c>
       <c r="C7" t="n">
-        <v>492.7296672439907</v>
+        <v>1031.836665895394</v>
       </c>
       <c r="D7" s="2" t="n">
-        <v>45414.01594205802</v>
+        <v>45414.02260065685</v>
       </c>
       <c r="E7" s="2" t="n">
-        <v>45414.01594628888</v>
+        <v>45414.02260511669</v>
       </c>
       <c r="F7" s="3" t="n">
-        <v>4.230856481481481e-06</v>
+        <v>4.459837962962963e-06</v>
       </c>
       <c r="G7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I7" t="b">
-        <v>0</v>
-      </c>
-      <c r="J7" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M7" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N7" t="n">
-        <v>5</v>
-      </c>
-      <c r="O7" t="n">
-        <v>3</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="O7" t="inlineStr"/>
       <c r="P7" t="inlineStr"/>
       <c r="Q7" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="R7" t="inlineStr">
         <is>
@@ -845,16 +845,16 @@
         <v>6</v>
       </c>
       <c r="C8" t="n">
-        <v>563.7518264957856</v>
+        <v>667.6958882980884</v>
       </c>
       <c r="D8" s="2" t="n">
-        <v>45414.01594707635</v>
+        <v>45414.02260613791</v>
       </c>
       <c r="E8" s="2" t="n">
-        <v>45414.01595166857</v>
+        <v>45414.02261050383</v>
       </c>
       <c r="F8" s="3" t="n">
-        <v>4.592210648148148e-06</v>
+        <v>4.365914351851852e-06</v>
       </c>
       <c r="G8" t="b">
         <v>1</v>
@@ -862,24 +862,20 @@
       <c r="H8" t="b">
         <v>0</v>
       </c>
-      <c r="I8" t="b">
-        <v>1</v>
-      </c>
+      <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M8" t="n">
         <v>5</v>
       </c>
-      <c r="N8" t="n">
-        <v>3</v>
-      </c>
+      <c r="N8" t="inlineStr"/>
       <c r="O8" t="inlineStr"/>
       <c r="P8" t="inlineStr"/>
       <c r="Q8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R8" t="inlineStr">
         <is>
@@ -895,49 +891,37 @@
         <v>7</v>
       </c>
       <c r="C9" t="n">
-        <v>580.6045318604672</v>
+        <v>903.7690869766376</v>
       </c>
       <c r="D9" s="2" t="n">
-        <v>45414.01595242198</v>
+        <v>45414.02261134527</v>
       </c>
       <c r="E9" s="2" t="n">
-        <v>45414.01595687213</v>
+        <v>45414.02261533507</v>
       </c>
       <c r="F9" s="3" t="n">
-        <v>4.450150462962962e-06</v>
+        <v>3.989803240740741e-06</v>
       </c>
       <c r="G9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H9" t="b">
         <v>1</v>
       </c>
-      <c r="I9" t="b">
-        <v>1</v>
-      </c>
-      <c r="J9" t="b">
-        <v>1</v>
-      </c>
-      <c r="K9" t="b">
-        <v>0</v>
-      </c>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
       <c r="L9" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M9" t="n">
         <v>3</v>
       </c>
-      <c r="N9" t="n">
-        <v>5</v>
-      </c>
-      <c r="O9" t="n">
-        <v>2</v>
-      </c>
-      <c r="P9" t="n">
-        <v>3</v>
-      </c>
+      <c r="N9" t="inlineStr"/>
+      <c r="O9" t="inlineStr"/>
+      <c r="P9" t="inlineStr"/>
       <c r="Q9" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="R9" t="inlineStr">
         <is>
@@ -953,37 +937,41 @@
         <v>8</v>
       </c>
       <c r="C10" t="n">
-        <v>488.2221028024351</v>
+        <v>646.8320955700641</v>
       </c>
       <c r="D10" s="2" t="n">
-        <v>45414.01595774364</v>
+        <v>45414.02261617158</v>
       </c>
       <c r="E10" s="2" t="n">
-        <v>45414.01596145376</v>
+        <v>45414.02262053398</v>
       </c>
       <c r="F10" s="3" t="n">
-        <v>3.710115740740741e-06</v>
+        <v>4.362395833333333e-06</v>
       </c>
       <c r="G10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H10" t="b">
-        <v>0</v>
-      </c>
-      <c r="I10" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I10" t="b">
+        <v>0</v>
+      </c>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="n">
         <v>2</v>
       </c>
       <c r="M10" t="n">
-        <v>3</v>
-      </c>
-      <c r="N10" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="N10" t="n">
+        <v>2</v>
+      </c>
       <c r="O10" t="inlineStr"/>
       <c r="P10" t="inlineStr"/>
       <c r="Q10" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R10" t="inlineStr">
         <is>
@@ -999,49 +987,37 @@
         <v>9</v>
       </c>
       <c r="C11" t="n">
-        <v>900.4484519097377</v>
+        <v>658.544432644773</v>
       </c>
       <c r="D11" s="2" t="n">
-        <v>45414.01596215672</v>
+        <v>45414.02262146215</v>
       </c>
       <c r="E11" s="2" t="n">
-        <v>45414.01596573395</v>
+        <v>45414.02262619085</v>
       </c>
       <c r="F11" s="3" t="n">
-        <v>3.577222222222222e-06</v>
+        <v>4.72869212962963e-06</v>
       </c>
       <c r="G11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
       </c>
-      <c r="I11" t="b">
-        <v>1</v>
-      </c>
-      <c r="J11" t="b">
-        <v>0</v>
-      </c>
-      <c r="K11" t="b">
-        <v>1</v>
-      </c>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
       <c r="L11" t="n">
         <v>2</v>
       </c>
       <c r="M11" t="n">
-        <v>2</v>
-      </c>
-      <c r="N11" t="n">
-        <v>4</v>
-      </c>
-      <c r="O11" t="n">
-        <v>4</v>
-      </c>
-      <c r="P11" t="n">
-        <v>2</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="N11" t="inlineStr"/>
+      <c r="O11" t="inlineStr"/>
+      <c r="P11" t="inlineStr"/>
       <c r="Q11" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="R11" t="inlineStr">
         <is>

--- a/Otimização/triagem.xlsx
+++ b/Otimização/triagem.xlsx
@@ -533,46 +533,46 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>892.8301576385223</v>
+        <v>647.4728882408951</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>45414.57989743674</v>
+        <v>45417.98724882503</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>45414.58001043713</v>
+        <v>45417.98738444081</v>
       </c>
       <c r="F2" s="3" t="n">
-        <v>0.0001130003935185185</v>
+        <v>0.000135615787037037</v>
       </c>
       <c r="G2" t="b">
         <v>1</v>
       </c>
       <c r="H2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J2" t="b">
         <v>0</v>
       </c>
       <c r="K2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M2" t="n">
+        <v>3</v>
+      </c>
+      <c r="N2" t="n">
         <v>2</v>
       </c>
-      <c r="N2" t="n">
-        <v>5</v>
-      </c>
       <c r="O2" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="P2" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="Q2" t="n">
         <v>5</v>
@@ -591,49 +591,45 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>682.6584584094948</v>
+        <v>569.1784979920639</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>45414.58001128888</v>
+        <v>45417.98740355534</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>45414.58001588472</v>
+        <v>45417.98740928002</v>
       </c>
       <c r="F3" s="3" t="n">
-        <v>4.595844907407407e-06</v>
+        <v>5.7246875e-06</v>
       </c>
       <c r="G3" t="b">
         <v>0</v>
       </c>
       <c r="H3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J3" t="b">
-        <v>1</v>
-      </c>
-      <c r="K3" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
         <v>4</v>
       </c>
       <c r="M3" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N3" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="O3" t="n">
         <v>3</v>
       </c>
-      <c r="P3" t="n">
-        <v>2</v>
-      </c>
+      <c r="P3" t="inlineStr"/>
       <c r="Q3" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R3" t="inlineStr">
         <is>
@@ -649,41 +645,45 @@
         <v>2</v>
       </c>
       <c r="C4" t="n">
-        <v>1120.635028975154</v>
+        <v>642.4215716369839</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>45414.58001669373</v>
+        <v>45417.98741106163</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>45414.5800213892</v>
+        <v>45417.98741933839</v>
       </c>
       <c r="F4" s="3" t="n">
-        <v>4.695474537037037e-06</v>
+        <v>8.27675925925926e-06</v>
       </c>
       <c r="G4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I4" t="b">
-        <v>1</v>
-      </c>
-      <c r="J4" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J4" t="b">
+        <v>1</v>
+      </c>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M4" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N4" t="n">
         <v>5</v>
       </c>
-      <c r="O4" t="inlineStr"/>
+      <c r="O4" t="n">
+        <v>3</v>
+      </c>
       <c r="P4" t="inlineStr"/>
       <c r="Q4" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="R4" t="inlineStr">
         <is>
@@ -699,37 +699,49 @@
         <v>3</v>
       </c>
       <c r="C5" t="n">
-        <v>944.3414976445366</v>
+        <v>659.0051308485641</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>45414.58002230957</v>
+        <v>45417.98742076398</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>45414.58002696747</v>
+        <v>45417.98742899849</v>
       </c>
       <c r="F5" s="3" t="n">
-        <v>4.657893518518519e-06</v>
+        <v>8.234502314814815e-06</v>
       </c>
       <c r="G5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H5" t="b">
         <v>1</v>
       </c>
-      <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
+      <c r="I5" t="b">
+        <v>0</v>
+      </c>
+      <c r="J5" t="b">
+        <v>0</v>
+      </c>
+      <c r="K5" t="b">
+        <v>0</v>
+      </c>
       <c r="L5" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M5" t="n">
         <v>4</v>
       </c>
-      <c r="N5" t="inlineStr"/>
-      <c r="O5" t="inlineStr"/>
-      <c r="P5" t="inlineStr"/>
+      <c r="N5" t="n">
+        <v>5</v>
+      </c>
+      <c r="O5" t="n">
+        <v>3</v>
+      </c>
+      <c r="P5" t="n">
+        <v>4</v>
+      </c>
       <c r="Q5" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="R5" t="inlineStr">
         <is>
@@ -745,16 +757,16 @@
         <v>4</v>
       </c>
       <c r="C6" t="n">
-        <v>558.4648153615981</v>
+        <v>536.5965280057662</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>45414.58002788504</v>
+        <v>45417.98743067895</v>
       </c>
       <c r="E6" s="2" t="n">
-        <v>45414.58003232032</v>
+        <v>45417.98743900283</v>
       </c>
       <c r="F6" s="3" t="n">
-        <v>4.435289351851852e-06</v>
+        <v>8.323888888888889e-06</v>
       </c>
       <c r="G6" t="b">
         <v>0</v>
@@ -770,13 +782,13 @@
       </c>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M6" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N6" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="O6" t="n">
         <v>5</v>
@@ -799,19 +811,19 @@
         <v>5</v>
       </c>
       <c r="C7" t="n">
-        <v>710.7596925241118</v>
+        <v>1015.268885803833</v>
       </c>
       <c r="D7" s="2" t="n">
-        <v>45414.58003317267</v>
+        <v>45417.98744059432</v>
       </c>
       <c r="E7" s="2" t="n">
-        <v>45414.58003758988</v>
+        <v>45417.98744715974</v>
       </c>
       <c r="F7" s="3" t="n">
-        <v>4.417199074074074e-06</v>
+        <v>6.565416666666667e-06</v>
       </c>
       <c r="G7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
@@ -822,13 +834,13 @@
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M7" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N7" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="O7" t="inlineStr"/>
       <c r="P7" t="inlineStr"/>
@@ -849,19 +861,19 @@
         <v>6</v>
       </c>
       <c r="C8" t="n">
-        <v>752.3895762435299</v>
+        <v>615.7373059387866</v>
       </c>
       <c r="D8" s="2" t="n">
-        <v>45414.58003849615</v>
+        <v>45417.98744859135</v>
       </c>
       <c r="E8" s="2" t="n">
-        <v>45414.58004216127</v>
+        <v>45417.98745428179</v>
       </c>
       <c r="F8" s="3" t="n">
-        <v>3.665115740740741e-06</v>
+        <v>5.690451388888889e-06</v>
       </c>
       <c r="G8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
@@ -875,10 +887,10 @@
         <v>2</v>
       </c>
       <c r="M8" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N8" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O8" t="inlineStr"/>
       <c r="P8" t="inlineStr"/>
@@ -899,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="C9" t="n">
-        <v>516.6887081300061</v>
+        <v>1067.304247481908</v>
       </c>
       <c r="D9" s="2" t="n">
-        <v>45414.58004306433</v>
+        <v>45417.98745606123</v>
       </c>
       <c r="E9" s="2" t="n">
-        <v>45414.58004867418</v>
+        <v>45417.98746366498</v>
       </c>
       <c r="F9" s="3" t="n">
-        <v>5.609849537037037e-06</v>
+        <v>7.60375e-06</v>
       </c>
       <c r="G9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H9" t="b">
         <v>1</v>
@@ -919,25 +931,21 @@
       <c r="I9" t="b">
         <v>1</v>
       </c>
-      <c r="J9" t="b">
-        <v>0</v>
-      </c>
+      <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M9" t="n">
         <v>2</v>
       </c>
       <c r="N9" t="n">
-        <v>4</v>
-      </c>
-      <c r="O9" t="n">
-        <v>2</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="O9" t="inlineStr"/>
       <c r="P9" t="inlineStr"/>
       <c r="Q9" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="R9" t="inlineStr">
         <is>
@@ -953,37 +961,41 @@
         <v>8</v>
       </c>
       <c r="C10" t="n">
-        <v>1015.328811984118</v>
+        <v>725.3641792422015</v>
       </c>
       <c r="D10" s="2" t="n">
-        <v>45414.58004971477</v>
+        <v>45417.98746501424</v>
       </c>
       <c r="E10" s="2" t="n">
-        <v>45414.58005398879</v>
+        <v>45417.98746967236</v>
       </c>
       <c r="F10" s="3" t="n">
-        <v>4.274016203703704e-06</v>
+        <v>4.658125e-06</v>
       </c>
       <c r="G10" t="b">
         <v>1</v>
       </c>
       <c r="H10" t="b">
-        <v>1</v>
-      </c>
-      <c r="I10" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I10" t="b">
+        <v>0</v>
+      </c>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M10" t="n">
+        <v>4</v>
+      </c>
+      <c r="N10" t="n">
         <v>2</v>
       </c>
-      <c r="N10" t="inlineStr"/>
       <c r="O10" t="inlineStr"/>
       <c r="P10" t="inlineStr"/>
       <c r="Q10" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R10" t="inlineStr">
         <is>
@@ -999,41 +1011,37 @@
         <v>9</v>
       </c>
       <c r="C11" t="n">
-        <v>783.6872745768067</v>
+        <v>642.1915892384037</v>
       </c>
       <c r="D11" s="2" t="n">
-        <v>45414.58005487544</v>
+        <v>45417.98747094696</v>
       </c>
       <c r="E11" s="2" t="n">
-        <v>45414.58005927857</v>
+        <v>45417.98747692812</v>
       </c>
       <c r="F11" s="3" t="n">
-        <v>4.403125e-06</v>
+        <v>5.981157407407407e-06</v>
       </c>
       <c r="G11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H11" t="b">
-        <v>0</v>
-      </c>
-      <c r="I11" t="b">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="n">
         <v>4</v>
       </c>
       <c r="M11" t="n">
-        <v>4</v>
-      </c>
-      <c r="N11" t="n">
-        <v>5</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="N11" t="inlineStr"/>
       <c r="O11" t="inlineStr"/>
       <c r="P11" t="inlineStr"/>
       <c r="Q11" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R11" t="inlineStr">
         <is>

--- a/Otimização/triagem.xlsx
+++ b/Otimização/triagem.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S4"/>
+  <dimension ref="A1:S11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -538,19 +538,19 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>479.85130377968</v>
+        <v>534.2135370340166</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>45418.98021738302</v>
+        <v>45419.30747129703</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>45418.9881713489</v>
+        <v>45419.31755762768</v>
       </c>
       <c r="F2" s="3" t="n">
-        <v>0.00795396587962963</v>
+        <v>0.01008633064814815</v>
       </c>
       <c r="G2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
@@ -562,28 +562,24 @@
         <v>1</v>
       </c>
       <c r="K2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L2" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="L2" t="inlineStr"/>
       <c r="M2" t="n">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="N2" t="n">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="O2" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="P2" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>7</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="Q2" t="inlineStr"/>
       <c r="R2" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S2" t="inlineStr">
         <is>
@@ -599,16 +595,16 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>637.0730656097107</v>
+        <v>686.3546758189685</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>45418.9881722053</v>
+        <v>45419.31756825455</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>45418.98817813025</v>
+        <v>45419.31757212022</v>
       </c>
       <c r="F3" s="3" t="n">
-        <v>5.924953703703704e-06</v>
+        <v>3.865671296296297e-06</v>
       </c>
       <c r="G3" t="b">
         <v>0</v>
@@ -617,26 +613,22 @@
         <v>1</v>
       </c>
       <c r="I3" t="b">
-        <v>0</v>
-      </c>
-      <c r="J3" t="b">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
       <c r="M3" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="N3" t="n">
-        <v>4</v>
-      </c>
-      <c r="O3" t="n">
-        <v>8</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="O3" t="inlineStr"/>
       <c r="P3" t="inlineStr"/>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="S3" t="inlineStr">
         <is>
@@ -652,19 +644,19 @@
         <v>2</v>
       </c>
       <c r="C4" t="n">
-        <v>479.9767798983721</v>
+        <v>666.36044711057</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>45418.98817903895</v>
+        <v>45419.31757322622</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>45418.98818421508</v>
+        <v>45419.31757620042</v>
       </c>
       <c r="F4" s="3" t="n">
-        <v>5.176134259259259e-06</v>
+        <v>2.974201388888889e-06</v>
       </c>
       <c r="G4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H4" t="b">
         <v>1</v>
@@ -672,26 +664,417 @@
       <c r="I4" t="b">
         <v>0</v>
       </c>
-      <c r="J4" t="b">
-        <v>1</v>
-      </c>
+      <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
       <c r="M4" t="n">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="N4" t="n">
-        <v>4</v>
-      </c>
-      <c r="O4" t="n">
-        <v>12</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="O4" t="inlineStr"/>
       <c r="P4" t="inlineStr"/>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="n">
+        <v>2</v>
+      </c>
+      <c r="S4" t="inlineStr">
+        <is>
+          <t>COMPLETE</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="S4" t="inlineStr">
+      <c r="B5" t="n">
+        <v>3</v>
+      </c>
+      <c r="C5" t="n">
+        <v>703.3754666142037</v>
+      </c>
+      <c r="D5" s="2" t="n">
+        <v>45419.31757694421</v>
+      </c>
+      <c r="E5" s="2" t="n">
+        <v>45419.31758028483</v>
+      </c>
+      <c r="F5" s="3" t="n">
+        <v>3.340613425925926e-06</v>
+      </c>
+      <c r="G5" t="b">
+        <v>1</v>
+      </c>
+      <c r="H5" t="b">
+        <v>0</v>
+      </c>
+      <c r="I5" t="b">
+        <v>1</v>
+      </c>
+      <c r="J5" t="b">
+        <v>1</v>
+      </c>
+      <c r="K5" t="b">
+        <v>1</v>
+      </c>
+      <c r="L5" t="inlineStr"/>
+      <c r="M5" t="n">
+        <v>2</v>
+      </c>
+      <c r="N5" t="n">
+        <v>10</v>
+      </c>
+      <c r="O5" t="n">
+        <v>12</v>
+      </c>
+      <c r="P5" t="n">
+        <v>7</v>
+      </c>
+      <c r="Q5" t="inlineStr"/>
+      <c r="R5" t="n">
+        <v>4</v>
+      </c>
+      <c r="S5" t="inlineStr">
+        <is>
+          <t>COMPLETE</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>4</v>
+      </c>
+      <c r="C6" t="n">
+        <v>723.9638545391641</v>
+      </c>
+      <c r="D6" s="2" t="n">
+        <v>45419.31758103128</v>
+      </c>
+      <c r="E6" s="2" t="n">
+        <v>45419.31758473958</v>
+      </c>
+      <c r="F6" s="3" t="n">
+        <v>3.708298611111111e-06</v>
+      </c>
+      <c r="G6" t="b">
+        <v>1</v>
+      </c>
+      <c r="H6" t="b">
+        <v>1</v>
+      </c>
+      <c r="I6" t="b">
+        <v>0</v>
+      </c>
+      <c r="J6" t="b">
+        <v>0</v>
+      </c>
+      <c r="K6" t="b">
+        <v>1</v>
+      </c>
+      <c r="L6" t="inlineStr"/>
+      <c r="M6" t="n">
+        <v>13</v>
+      </c>
+      <c r="N6" t="n">
+        <v>9</v>
+      </c>
+      <c r="O6" t="n">
+        <v>5</v>
+      </c>
+      <c r="P6" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q6" t="inlineStr"/>
+      <c r="R6" t="n">
+        <v>4</v>
+      </c>
+      <c r="S6" t="inlineStr">
+        <is>
+          <t>COMPLETE</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>5</v>
+      </c>
+      <c r="C7" t="n">
+        <v>479.2928093799912</v>
+      </c>
+      <c r="D7" s="2" t="n">
+        <v>45419.3175855178</v>
+      </c>
+      <c r="E7" s="2" t="n">
+        <v>45419.3175891908</v>
+      </c>
+      <c r="F7" s="3" t="n">
+        <v>3.672997685185185e-06</v>
+      </c>
+      <c r="G7" t="b">
+        <v>0</v>
+      </c>
+      <c r="H7" t="b">
+        <v>1</v>
+      </c>
+      <c r="I7" t="b">
+        <v>1</v>
+      </c>
+      <c r="J7" t="b">
+        <v>1</v>
+      </c>
+      <c r="K7" t="b">
+        <v>0</v>
+      </c>
+      <c r="L7" t="b">
+        <v>0</v>
+      </c>
+      <c r="M7" t="n">
+        <v>9</v>
+      </c>
+      <c r="N7" t="n">
+        <v>5</v>
+      </c>
+      <c r="O7" t="n">
+        <v>10</v>
+      </c>
+      <c r="P7" t="n">
+        <v>6</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>9</v>
+      </c>
+      <c r="R7" t="n">
+        <v>5</v>
+      </c>
+      <c r="S7" t="inlineStr">
+        <is>
+          <t>COMPLETE</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>6</v>
+      </c>
+      <c r="C8" t="n">
+        <v>710.9253793203939</v>
+      </c>
+      <c r="D8" s="2" t="n">
+        <v>45419.31758983521</v>
+      </c>
+      <c r="E8" s="2" t="n">
+        <v>45419.31759379049</v>
+      </c>
+      <c r="F8" s="3" t="n">
+        <v>3.955277777777777e-06</v>
+      </c>
+      <c r="G8" t="b">
+        <v>1</v>
+      </c>
+      <c r="H8" t="b">
+        <v>1</v>
+      </c>
+      <c r="I8" t="b">
+        <v>1</v>
+      </c>
+      <c r="J8" t="b">
+        <v>0</v>
+      </c>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
+      <c r="M8" t="n">
+        <v>7</v>
+      </c>
+      <c r="N8" t="n">
+        <v>12</v>
+      </c>
+      <c r="O8" t="n">
+        <v>9</v>
+      </c>
+      <c r="P8" t="inlineStr"/>
+      <c r="Q8" t="inlineStr"/>
+      <c r="R8" t="n">
+        <v>3</v>
+      </c>
+      <c r="S8" t="inlineStr">
+        <is>
+          <t>COMPLETE</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>7</v>
+      </c>
+      <c r="C9" t="n">
+        <v>704.1111696223209</v>
+      </c>
+      <c r="D9" s="2" t="n">
+        <v>45419.31759462813</v>
+      </c>
+      <c r="E9" s="2" t="n">
+        <v>45419.31759855235</v>
+      </c>
+      <c r="F9" s="3" t="n">
+        <v>3.924212962962963e-06</v>
+      </c>
+      <c r="G9" t="b">
+        <v>1</v>
+      </c>
+      <c r="H9" t="b">
+        <v>0</v>
+      </c>
+      <c r="I9" t="b">
+        <v>1</v>
+      </c>
+      <c r="J9" t="b">
+        <v>1</v>
+      </c>
+      <c r="K9" t="b">
+        <v>1</v>
+      </c>
+      <c r="L9" t="inlineStr"/>
+      <c r="M9" t="n">
+        <v>9</v>
+      </c>
+      <c r="N9" t="n">
+        <v>13</v>
+      </c>
+      <c r="O9" t="n">
+        <v>6</v>
+      </c>
+      <c r="P9" t="n">
+        <v>8</v>
+      </c>
+      <c r="Q9" t="inlineStr"/>
+      <c r="R9" t="n">
+        <v>4</v>
+      </c>
+      <c r="S9" t="inlineStr">
+        <is>
+          <t>COMPLETE</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>8</v>
+      </c>
+      <c r="C10" t="n">
+        <v>473.9975185172549</v>
+      </c>
+      <c r="D10" s="2" t="n">
+        <v>45419.31759937903</v>
+      </c>
+      <c r="E10" s="2" t="n">
+        <v>45419.31760327372</v>
+      </c>
+      <c r="F10" s="3" t="n">
+        <v>3.894699074074075e-06</v>
+      </c>
+      <c r="G10" t="b">
+        <v>0</v>
+      </c>
+      <c r="H10" t="b">
+        <v>0</v>
+      </c>
+      <c r="I10" t="b">
+        <v>1</v>
+      </c>
+      <c r="J10" t="b">
+        <v>1</v>
+      </c>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
+      <c r="M10" t="n">
+        <v>6</v>
+      </c>
+      <c r="N10" t="n">
+        <v>9</v>
+      </c>
+      <c r="O10" t="n">
+        <v>13</v>
+      </c>
+      <c r="P10" t="inlineStr"/>
+      <c r="Q10" t="inlineStr"/>
+      <c r="R10" t="n">
+        <v>3</v>
+      </c>
+      <c r="S10" t="inlineStr">
+        <is>
+          <t>COMPLETE</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>9</v>
+      </c>
+      <c r="C11" t="n">
+        <v>488.7208810002889</v>
+      </c>
+      <c r="D11" s="2" t="n">
+        <v>45419.31760417738</v>
+      </c>
+      <c r="E11" s="2" t="n">
+        <v>45419.31760754826</v>
+      </c>
+      <c r="F11" s="3" t="n">
+        <v>3.37087962962963e-06</v>
+      </c>
+      <c r="G11" t="b">
+        <v>0</v>
+      </c>
+      <c r="H11" t="b">
+        <v>1</v>
+      </c>
+      <c r="I11" t="b">
+        <v>1</v>
+      </c>
+      <c r="J11" t="b">
+        <v>0</v>
+      </c>
+      <c r="K11" t="b">
+        <v>0</v>
+      </c>
+      <c r="L11" t="inlineStr"/>
+      <c r="M11" t="n">
+        <v>7</v>
+      </c>
+      <c r="N11" t="n">
+        <v>13</v>
+      </c>
+      <c r="O11" t="n">
+        <v>12</v>
+      </c>
+      <c r="P11" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q11" t="inlineStr"/>
+      <c r="R11" t="n">
+        <v>4</v>
+      </c>
+      <c r="S11" t="inlineStr">
         <is>
           <t>COMPLETE</t>
         </is>
